--- a/Test/Lawnmower/T2/Sensors_data_1000049.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000049.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8971810574668188</v>
+        <v>0.9689217784707167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003228041309432769</v>
+        <v>0.001236049041968519</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1105740983979035</v>
+        <v>0.2928845654063506</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9835665316006628</v>
+        <v>0.9996767534926798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007159000911194123</v>
+        <v>1.911594790749527e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01055217641818051</v>
+        <v>0.006047699540685347</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,18 +525,43 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9190469801123744</v>
+        <v>0.386517748722124</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002899105633612597</v>
+        <v>0.01967480877758511</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02345550019725595</v>
+        <v>0.05439328473794564</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9695274235630467</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0009725301296356951</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3601420771740521</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
